--- a/editor/examples/Hedda2.0/MMrules.xlsx
+++ b/editor/examples/Hedda2.0/MMrules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658B74E-8A99-C34A-BE1D-C6F4C4DC536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16264846-0178-EB44-90F4-DDBEB6FBA23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="36" customHeight="1"/>
@@ -588,10 +588,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25">

--- a/editor/examples/Hedda2.0/MMrules.xlsx
+++ b/editor/examples/Hedda2.0/MMrules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16264846-0178-EB44-90F4-DDBEB6FBA23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9855993-B950-8744-8A29-89B146B70E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>read</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>commentabouthedda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkaboutthebook</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="36" customHeight="1"/>
@@ -536,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1">
@@ -558,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25">
@@ -569,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1">
@@ -588,7 +592,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -599,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -613,7 +617,18 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/editor/examples/Hedda2.0/MMrules.xlsx
+++ b/editor/examples/Hedda2.0/MMrules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/editor/examples/Hedda2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9855993-B950-8744-8A29-89B146B70E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0C04A-3273-EA44-808A-7F6EFB09BF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>read</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,17 @@
   </si>
   <si>
     <t>talkaboutthebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misunderstand</t>
+  </si>
+  <si>
+    <t>interestaboutthebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenge_bye</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +139,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -180,11 +199,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -207,6 +237,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="36" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="4" customWidth="1"/>
     <col min="3" max="4" width="12.83203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="1"/>
@@ -540,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1">
@@ -562,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25">
@@ -573,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1">
@@ -603,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -629,6 +662,39 @@
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="36" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
